--- a/assm-user/src/resources/RegistrationData.xlsx
+++ b/assm-user/src/resources/RegistrationData.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Test Result" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -76,6 +77,45 @@
   </si>
   <si>
     <t>Scarlet@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test ID</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input data</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify login page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanos, 1221, Nguyen Thanos, Thanos@gmail.com</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">captainemerica, 1221, Tran Captain, Captain@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blackwidow, 1221, Nguyen Black, Black@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scarlet, 1221, Tran Scarlet, Scarlet@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -129,12 +169,9 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -654,10 +691,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="2" max="2" width="13.7109375"/>
-    <col bestFit="1" min="3" max="3" width="10.00390625"/>
-    <col bestFit="1" min="4" max="4" width="14.00390625"/>
-    <col bestFit="1" min="5" max="5" width="18.00390625"/>
+    <col bestFit="1" collapsed="1" min="2" max="2" width="13.7109375"/>
+    <col bestFit="1" collapsed="1" min="3" max="3" width="10.00390625"/>
+    <col bestFit="1" collapsed="1" min="4" max="4" width="14.00390625"/>
+    <col bestFit="1" collapsed="1" min="5" max="5" width="18.00390625"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
@@ -681,7 +718,7 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2">
@@ -690,7 +727,7 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -698,7 +735,7 @@
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2">
@@ -707,7 +744,7 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -715,7 +752,7 @@
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2">
@@ -724,7 +761,7 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -732,7 +769,7 @@
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2">
@@ -741,7 +778,7 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -754,6 +791,130 @@
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="6.57421875"/>
+    <col bestFit="1" min="2" max="2" width="14.7109375"/>
+    <col bestFit="1" min="3" max="3" width="48.8515625"/>
+    <col bestFit="1" min="4" max="5" width="11.00390625"/>
+    <col bestFit="1" min="6" max="6" width="6.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
